--- a/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
+++ b/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
@@ -367,8 +367,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1">
-        <f>MODE(C[10, 0, 0, 0] : C[10, 0, 0, 0])</f>
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -403,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -414,13 +413,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -428,13 +427,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -442,13 +441,13 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -456,13 +455,13 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -470,13 +469,13 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -484,13 +483,13 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -498,13 +497,13 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -512,13 +511,13 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -526,13 +525,13 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
+++ b/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Time Step</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>Sensed State</t>
+  </si>
+  <si>
+    <t>Are Sensors Working?</t>
+  </si>
+  <si>
+    <t>Did Sensed State Match Truth State?</t>
   </si>
 </sst>
 </file>
@@ -357,16 +363,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="12.28515625" customWidth="1"/>
+    <col min="1" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,8 +385,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -393,8 +405,16 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f>IF(AND(E2=1, A2=C2), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>1</v>
       </c>
@@ -407,8 +427,16 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <f>C3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>IF(AND(E3=1, A3=C3), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2</v>
       </c>
@@ -421,8 +449,16 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <f>C4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>IF(AND(E4=1, A4=C4), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>3</v>
       </c>
@@ -435,8 +471,16 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <f>C5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>IF(AND(E5=1, A5=C5), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>4</v>
       </c>
@@ -449,13 +493,21 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <f>C6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>IF(AND(E6=1, A6=C6), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -463,13 +515,21 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <f>C7</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>IF(AND(E7=1, A7=C7), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -477,13 +537,21 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <f>C8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>IF(AND(E8=1, A8=C8), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -491,13 +559,21 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <f>C9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>IF(AND(E9=1, A9=C9), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -505,13 +581,21 @@
       <c r="D10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <f>C10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>IF(AND(E10=1, A10=C10), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -519,19 +603,35 @@
       <c r="D11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <f>C11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>IF(AND(E11=1, A11=C11), 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
+      </c>
+      <c r="E12">
+        <f>C12</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>IF(AND(E12=1, A12=C12), 1, 0)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
+++ b/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
@@ -67,8 +67,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,22 +376,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -410,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <f>IF(AND(E2=1, A2=C2), 1, 0)</f>
+        <f>IF(B2=D2, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -432,7 +435,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <f>IF(AND(E3=1, A3=C3), 1, 0)</f>
+        <f>IF(B3=D3, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -454,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <f>IF(AND(E4=1, A4=C4), 1, 0)</f>
+        <f>IF(B4=D4, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -476,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <f>IF(AND(E5=1, A5=C5), 1, 0)</f>
+        <f>IF(B5=D5, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -498,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <f>IF(AND(E6=1, A6=C6), 1, 0)</f>
+        <f>IF(B6=D6, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -507,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -520,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <f>IF(AND(E7=1, A7=C7), 1, 0)</f>
+        <f>IF(B7=D7, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -542,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <f>IF(AND(E8=1, A8=C8), 1, 0)</f>
+        <f>IF(B8=D8, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -564,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <f>IF(AND(E9=1, A9=C9), 1, 0)</f>
+        <f>IF(B9=D9, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -586,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <f>IF(AND(E10=1, A10=C10), 1, 0)</f>
+        <f>IF(B10=D10, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -608,7 +611,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <f>IF(AND(E11=1, A11=C11), 1, 0)</f>
+        <f>IF(B11=D11, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
@@ -630,11 +633,31 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <f>IF(AND(E12=1, A12=C12), 1, 0)</f>
+        <f>IF(B12=D12, 1, 0)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E2:E12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min" val="0"/>
+        <cfvo type="max" val="0"/>
+        <color rgb="FFFD0000"/>
+        <color rgb="FF00FD00"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
+++ b/shipClassTests/testResults/sensedComp_SingleSensors.xlsx
@@ -7,39 +7,50 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sensed comp1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensed Comp1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Time Step</t>
   </si>
   <si>
-    <t>Truth State</t>
+    <t>Comp Truth State</t>
   </si>
   <si>
-    <t>Sensor 1</t>
+    <t>Sensor 1 Truth State</t>
   </si>
   <si>
     <t>Sensed State</t>
   </si>
   <si>
-    <t>Are Sensors Working?</t>
+    <t>Sensor 1 Reading from Comp</t>
   </si>
   <si>
-    <t>Did Sensed State Match Truth State?</t>
+    <t>Does Sensed State Match Truth State?</t>
+  </si>
+  <si>
+    <t>Are Sensors Working?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -55,10 +66,49 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -67,11 +117,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,26 +423,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="12.28515625" customWidth="1"/>
+    <col min="1" max="7" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -394,251 +454,287 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <f>IF(B2 = D2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
         <f>C2</f>
         <v>0</v>
       </c>
-      <c r="F2">
-        <f>IF(B2=D2, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4">
         <v>0</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>IF(B3 = D3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
         <f>C3</f>
         <v>0</v>
       </c>
-      <c r="F3">
-        <f>IF(B3=D3, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="4">
         <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>IF(B4 = D4, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
         <f>C4</f>
         <v>0</v>
       </c>
-      <c r="F4">
-        <f>IF(B4=D4, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4">
         <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <f>IF(B5 = D5, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
         <f>C5</f>
         <v>0</v>
       </c>
-      <c r="F5">
-        <f>IF(B5=D5, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="4">
         <v>0</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <f>IF(B6 = D6, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
         <f>C6</f>
         <v>0</v>
       </c>
-      <c r="F6">
-        <f>IF(B6=D6, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <f>IF(B7 = D7, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
         <f>C7</f>
         <v>0</v>
       </c>
-      <c r="F7">
-        <f>IF(B7=D7, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8">
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <f>IF(B8 = D8, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <f>C8</f>
         <v>0</v>
       </c>
-      <c r="F8">
-        <f>IF(B8=D8, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9">
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <f>IF(B9 = D9, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <f>C9</f>
         <v>0</v>
       </c>
-      <c r="F9">
-        <f>IF(B9=D9, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10">
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <f>IF(B10 = D10, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <f>C10</f>
         <v>0</v>
       </c>
-      <c r="F10">
-        <f>IF(B10=D10, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11">
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <f>IF(B11 = D11, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="3">
         <f>C11</f>
         <v>0</v>
       </c>
-      <c r="F11">
-        <f>IF(B11=D11, 1, 0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <f>IF(B12 = D12, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
         <f>C12</f>
         <v>0</v>
       </c>
-      <c r="F12">
-        <f>IF(B12=D12, 1, 0)</f>
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:E12">
+  <conditionalFormatting sqref="F2:F12">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -648,12 +744,14 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F12">
+  <conditionalFormatting sqref="G2:G12">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min" val="0"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max" val="0"/>
         <color rgb="FFFD0000"/>
+        <color rgb="FFFFFF00"/>
         <color rgb="FF00FD00"/>
       </colorScale>
     </cfRule>
